--- a/Doc/ウォッチリスト.xlsx
+++ b/Doc/ウォッチリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OptimalTraderDraft\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020CB7C0-B050-4576-92BC-C6221BE5CD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5BB7A-2D41-42F2-841E-69F9BBD2613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7707" uniqueCount="3869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7708" uniqueCount="3870">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -11845,6 +11845,10 @@
   </si>
   <si>
     <t>システムサポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPパートナー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11944,9 +11948,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11984,7 +11988,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -12090,7 +12094,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12232,7 +12236,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12303,9 +12307,7 @@
       <c r="G3" s="4">
         <v>45616</v>
       </c>
-      <c r="H3" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
         <v>148</v>
       </c>
@@ -12326,9 +12328,7 @@
       <c r="G4" s="4">
         <v>45616</v>
       </c>
-      <c r="H4" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
         <v>148</v>
       </c>
@@ -12397,9 +12397,7 @@
       <c r="G7" s="4">
         <v>45616</v>
       </c>
-      <c r="H7" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
         <v>148</v>
       </c>
@@ -12420,9 +12418,7 @@
       <c r="G8" s="4">
         <v>45616</v>
       </c>
-      <c r="H8" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="1" t="s">
         <v>148</v>
       </c>
@@ -12443,9 +12439,7 @@
       <c r="G9" s="4">
         <v>45616</v>
       </c>
-      <c r="H9" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="1" t="s">
         <v>148</v>
       </c>
@@ -12466,9 +12460,7 @@
       <c r="G10" s="4">
         <v>45616</v>
       </c>
-      <c r="H10" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="1" t="s">
         <v>148</v>
       </c>
@@ -12489,9 +12481,7 @@
       <c r="G11" s="4">
         <v>45616</v>
       </c>
-      <c r="H11" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="1" t="s">
         <v>148</v>
       </c>
@@ -12512,9 +12502,7 @@
       <c r="G12" s="4">
         <v>45616</v>
       </c>
-      <c r="H12" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="1" t="s">
         <v>148</v>
       </c>
@@ -12559,9 +12547,7 @@
       <c r="G14" s="4">
         <v>45616</v>
       </c>
-      <c r="H14" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="1" t="s">
         <v>148</v>
       </c>
@@ -12630,9 +12616,7 @@
       <c r="G17" s="4">
         <v>45616</v>
       </c>
-      <c r="H17" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="1" t="s">
         <v>148</v>
       </c>
@@ -12653,9 +12637,7 @@
       <c r="G18" s="4">
         <v>45616</v>
       </c>
-      <c r="H18" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="1" t="s">
         <v>148</v>
       </c>
@@ -12676,9 +12658,7 @@
       <c r="G19" s="4">
         <v>45616</v>
       </c>
-      <c r="H19" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="1" t="s">
         <v>148</v>
       </c>
@@ -12699,9 +12679,7 @@
       <c r="G20" s="4">
         <v>45616</v>
       </c>
-      <c r="H20" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="1" t="s">
         <v>148</v>
       </c>
@@ -12722,9 +12700,7 @@
       <c r="G21" s="4">
         <v>45616</v>
       </c>
-      <c r="H21" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="1" t="s">
         <v>148</v>
       </c>
@@ -12769,9 +12745,7 @@
       <c r="G23" s="4">
         <v>45616</v>
       </c>
-      <c r="H23" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="1" t="s">
         <v>148</v>
       </c>
@@ -12792,9 +12766,7 @@
       <c r="G24" s="4">
         <v>45616</v>
       </c>
-      <c r="H24" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="1" t="s">
         <v>148</v>
       </c>
@@ -12815,9 +12787,7 @@
       <c r="G25" s="4">
         <v>45616</v>
       </c>
-      <c r="H25" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="1" t="s">
         <v>148</v>
       </c>
@@ -12838,9 +12808,7 @@
       <c r="G26" s="4">
         <v>45616</v>
       </c>
-      <c r="H26" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="1" t="s">
         <v>148</v>
       </c>
@@ -12861,9 +12829,7 @@
       <c r="G27" s="4">
         <v>45616</v>
       </c>
-      <c r="H27" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="1" t="s">
         <v>148</v>
       </c>
@@ -12884,9 +12850,7 @@
       <c r="G28" s="4">
         <v>45616</v>
       </c>
-      <c r="H28" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="1" t="s">
         <v>148</v>
       </c>
@@ -12955,9 +12919,7 @@
       <c r="G31" s="4">
         <v>45616</v>
       </c>
-      <c r="H31" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="1" t="s">
         <v>148</v>
       </c>
@@ -12978,9 +12940,7 @@
       <c r="G32" s="4">
         <v>45616</v>
       </c>
-      <c r="H32" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="1" t="s">
         <v>148</v>
       </c>
@@ -13001,9 +12961,7 @@
       <c r="G33" s="4">
         <v>45616</v>
       </c>
-      <c r="H33" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="1" t="s">
         <v>148</v>
       </c>
@@ -13024,9 +12982,7 @@
       <c r="G34" s="4">
         <v>45616</v>
       </c>
-      <c r="H34" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H34" s="4"/>
       <c r="I34" s="1" t="s">
         <v>148</v>
       </c>
@@ -13047,9 +13003,7 @@
       <c r="G35" s="4">
         <v>45616</v>
       </c>
-      <c r="H35" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="1" t="s">
         <v>148</v>
       </c>
@@ -13070,9 +13024,7 @@
       <c r="G36" s="4">
         <v>45616</v>
       </c>
-      <c r="H36" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="1" t="s">
         <v>148</v>
       </c>
@@ -13093,9 +13045,7 @@
       <c r="G37" s="4">
         <v>45616</v>
       </c>
-      <c r="H37" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="1" t="s">
         <v>148</v>
       </c>
@@ -13116,9 +13066,7 @@
       <c r="G38" s="4">
         <v>45616</v>
       </c>
-      <c r="H38" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="1" t="s">
         <v>148</v>
       </c>
@@ -13139,9 +13087,7 @@
       <c r="G39" s="4">
         <v>45616</v>
       </c>
-      <c r="H39" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H39" s="4"/>
       <c r="I39" s="1" t="s">
         <v>148</v>
       </c>
@@ -13162,9 +13108,7 @@
       <c r="G40" s="4">
         <v>45616</v>
       </c>
-      <c r="H40" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="1" t="s">
         <v>148</v>
       </c>
@@ -13185,9 +13129,7 @@
       <c r="G41" s="4">
         <v>45616</v>
       </c>
-      <c r="H41" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="1" t="s">
         <v>148</v>
       </c>
@@ -13208,9 +13150,7 @@
       <c r="G42" s="4">
         <v>45616</v>
       </c>
-      <c r="H42" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H42" s="4"/>
       <c r="I42" s="1" t="s">
         <v>148</v>
       </c>
@@ -13231,9 +13171,7 @@
       <c r="G43" s="4">
         <v>45616</v>
       </c>
-      <c r="H43" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H43" s="4"/>
       <c r="I43" s="1" t="s">
         <v>148</v>
       </c>
@@ -13254,9 +13192,7 @@
       <c r="G44" s="4">
         <v>45616</v>
       </c>
-      <c r="H44" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H44" s="4"/>
       <c r="I44" s="1" t="s">
         <v>148</v>
       </c>
@@ -13277,9 +13213,7 @@
       <c r="G45" s="4">
         <v>45616</v>
       </c>
-      <c r="H45" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H45" s="4"/>
       <c r="I45" s="1" t="s">
         <v>148</v>
       </c>
@@ -13300,9 +13234,7 @@
       <c r="G46" s="4">
         <v>45616</v>
       </c>
-      <c r="H46" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H46" s="4"/>
       <c r="I46" s="1" t="s">
         <v>148</v>
       </c>
@@ -13323,9 +13255,7 @@
       <c r="G47" s="4">
         <v>45616</v>
       </c>
-      <c r="H47" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H47" s="4"/>
       <c r="I47" s="1" t="s">
         <v>148</v>
       </c>
@@ -13346,9 +13276,7 @@
       <c r="G48" s="4">
         <v>45616</v>
       </c>
-      <c r="H48" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H48" s="4"/>
       <c r="I48" s="1" t="s">
         <v>148</v>
       </c>
@@ -13369,9 +13297,7 @@
       <c r="G49" s="4">
         <v>45616</v>
       </c>
-      <c r="H49" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="1" t="s">
         <v>148</v>
       </c>
@@ -13392,9 +13318,7 @@
       <c r="G50" s="4">
         <v>45616</v>
       </c>
-      <c r="H50" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H50" s="4"/>
       <c r="I50" s="1" t="s">
         <v>148</v>
       </c>
@@ -13415,9 +13339,7 @@
       <c r="G51" s="4">
         <v>45616</v>
       </c>
-      <c r="H51" s="4">
-        <v>45637</v>
-      </c>
+      <c r="H51" s="4"/>
       <c r="I51" s="1" t="s">
         <v>148</v>
       </c>
@@ -14907,15 +14829,16 @@
       <c r="C125" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="D125" s="1" t="s">
+        <v>3869</v>
+      </c>
       <c r="E125" s="1">
         <v>1</v>
       </c>
       <c r="G125" s="4">
         <v>45624</v>
       </c>
-      <c r="H125" s="4">
-        <v>45643</v>
-      </c>
+      <c r="H125" s="4"/>
       <c r="I125" s="1" t="s">
         <v>149</v>
       </c>

--- a/Doc/ウォッチリスト.xlsx
+++ b/Doc/ウォッチリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OptimalTraderDraft\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5BB7A-2D41-42F2-841E-69F9BBD2613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967D7C72-2838-4BE0-963D-EF132CE1D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49F91CF-86B6-4FB8-BFAB-FCAC8F06404D}"/>
   </bookViews>
@@ -11948,9 +11948,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11988,7 +11988,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -12094,7 +12094,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12236,7 +12236,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12307,7 +12307,9 @@
       <c r="G3" s="4">
         <v>45616</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>148</v>
       </c>
@@ -12346,9 +12348,6 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
       <c r="G5" s="4">
         <v>45616</v>
       </c>
@@ -12370,9 +12369,6 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
       <c r="G6" s="4">
         <v>45616</v>
       </c>
@@ -12397,7 +12393,9 @@
       <c r="G7" s="4">
         <v>45616</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>45646</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>148</v>
       </c>
@@ -12418,7 +12416,9 @@
       <c r="G8" s="4">
         <v>45616</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>45646</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>148</v>
       </c>
@@ -12439,7 +12439,9 @@
       <c r="G9" s="4">
         <v>45616</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>45646</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>148</v>
       </c>
@@ -12460,7 +12462,9 @@
       <c r="G10" s="4">
         <v>45616</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>45646</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>148</v>
       </c>
@@ -12502,7 +12506,9 @@
       <c r="G12" s="4">
         <v>45616</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>45646</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>148</v>
       </c>
@@ -12520,13 +12526,12 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
       <c r="G13" s="4">
         <v>45616</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>45646</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>148</v>
       </c>
@@ -12547,7 +12552,9 @@
       <c r="G14" s="4">
         <v>45616</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>45646</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>148</v>
       </c>
@@ -12565,13 +12572,12 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
       <c r="G15" s="4">
         <v>45616</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <v>45646</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>148</v>
       </c>
@@ -12589,9 +12595,6 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
       <c r="G16" s="4">
         <v>45616</v>
       </c>
@@ -12616,7 +12619,9 @@
       <c r="G17" s="4">
         <v>45616</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>45646</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>148</v>
       </c>
@@ -12658,7 +12663,9 @@
       <c r="G19" s="4">
         <v>45616</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>45646</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>148</v>
       </c>
@@ -12679,7 +12686,9 @@
       <c r="G20" s="4">
         <v>45616</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>45646</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>148</v>
       </c>
@@ -12718,9 +12727,6 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
       <c r="G22" s="4">
         <v>45616</v>
       </c>
@@ -12766,7 +12772,9 @@
       <c r="G24" s="4">
         <v>45616</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>45646</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>148</v>
       </c>
@@ -12787,7 +12795,9 @@
       <c r="G25" s="4">
         <v>45616</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>45646</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
       </c>
@@ -12808,7 +12818,9 @@
       <c r="G26" s="4">
         <v>45616</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>45646</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>148</v>
       </c>
@@ -12829,7 +12841,9 @@
       <c r="G27" s="4">
         <v>45616</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4">
+        <v>45646</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>148</v>
       </c>
@@ -12850,7 +12864,9 @@
       <c r="G28" s="4">
         <v>45616</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>45646</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>148</v>
       </c>
@@ -12868,13 +12884,12 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
       <c r="G29" s="4">
         <v>45616</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>45646</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>148</v>
       </c>
@@ -12892,13 +12907,12 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
       <c r="G30" s="4">
         <v>45616</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4">
+        <v>45646</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>148</v>
       </c>
@@ -12919,7 +12933,9 @@
       <c r="G31" s="4">
         <v>45616</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4">
+        <v>45646</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>148</v>
       </c>
@@ -12940,7 +12956,9 @@
       <c r="G32" s="4">
         <v>45616</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4">
+        <v>45646</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>148</v>
       </c>
@@ -12961,7 +12979,9 @@
       <c r="G33" s="4">
         <v>45616</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4">
+        <v>45646</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>148</v>
       </c>
@@ -12982,7 +13002,9 @@
       <c r="G34" s="4">
         <v>45616</v>
       </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4">
+        <v>45646</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>148</v>
       </c>
@@ -13003,7 +13025,9 @@
       <c r="G35" s="4">
         <v>45616</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4">
+        <v>45646</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>148</v>
       </c>
@@ -13024,7 +13048,9 @@
       <c r="G36" s="4">
         <v>45616</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4">
+        <v>45646</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>148</v>
       </c>
@@ -13045,7 +13071,9 @@
       <c r="G37" s="4">
         <v>45616</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4">
+        <v>45646</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>148</v>
       </c>
@@ -13066,7 +13094,9 @@
       <c r="G38" s="4">
         <v>45616</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4">
+        <v>45646</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>148</v>
       </c>
@@ -13087,7 +13117,9 @@
       <c r="G39" s="4">
         <v>45616</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4">
+        <v>45646</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>148</v>
       </c>
@@ -13108,7 +13140,9 @@
       <c r="G40" s="4">
         <v>45616</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="4">
+        <v>45646</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>148</v>
       </c>
@@ -13129,7 +13163,9 @@
       <c r="G41" s="4">
         <v>45616</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4">
+        <v>45646</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>148</v>
       </c>
@@ -13150,7 +13186,9 @@
       <c r="G42" s="4">
         <v>45616</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4">
+        <v>45646</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>148</v>
       </c>
@@ -13171,7 +13209,9 @@
       <c r="G43" s="4">
         <v>45616</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4">
+        <v>45646</v>
+      </c>
       <c r="I43" s="1" t="s">
         <v>148</v>
       </c>
@@ -13192,7 +13232,9 @@
       <c r="G44" s="4">
         <v>45616</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4">
+        <v>45646</v>
+      </c>
       <c r="I44" s="1" t="s">
         <v>148</v>
       </c>
@@ -13213,7 +13255,9 @@
       <c r="G45" s="4">
         <v>45616</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4">
+        <v>45646</v>
+      </c>
       <c r="I45" s="1" t="s">
         <v>148</v>
       </c>
@@ -13234,7 +13278,9 @@
       <c r="G46" s="4">
         <v>45616</v>
       </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="4">
+        <v>45646</v>
+      </c>
       <c r="I46" s="1" t="s">
         <v>148</v>
       </c>
@@ -13255,7 +13301,9 @@
       <c r="G47" s="4">
         <v>45616</v>
       </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4">
+        <v>45646</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>148</v>
       </c>
@@ -13276,7 +13324,9 @@
       <c r="G48" s="4">
         <v>45616</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4">
+        <v>45646</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>148</v>
       </c>
@@ -13297,7 +13347,9 @@
       <c r="G49" s="4">
         <v>45616</v>
       </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="4">
+        <v>45646</v>
+      </c>
       <c r="I49" s="1" t="s">
         <v>148</v>
       </c>
@@ -13318,7 +13370,9 @@
       <c r="G50" s="4">
         <v>45616</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="4">
+        <v>45646</v>
+      </c>
       <c r="I50" s="1" t="s">
         <v>148</v>
       </c>
@@ -13339,7 +13393,9 @@
       <c r="G51" s="4">
         <v>45616</v>
       </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="4">
+        <v>45646</v>
+      </c>
       <c r="I51" s="1" t="s">
         <v>148</v>
       </c>
@@ -13606,9 +13662,6 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
       <c r="G64" s="4">
         <v>45624</v>
       </c>
@@ -13710,9 +13763,6 @@
       <c r="E69" s="1">
         <v>1</v>
       </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
       <c r="G69" s="4">
         <v>45624</v>
       </c>
@@ -14711,13 +14761,12 @@
       <c r="E119" s="1">
         <v>1</v>
       </c>
-      <c r="F119" s="1">
-        <v>1</v>
-      </c>
       <c r="G119" s="4">
         <v>45624</v>
       </c>
-      <c r="H119" s="4"/>
+      <c r="H119" s="4">
+        <v>45646</v>
+      </c>
       <c r="I119" s="1" t="s">
         <v>149</v>
       </c>
@@ -15093,13 +15142,12 @@
       <c r="E138" s="1">
         <v>1</v>
       </c>
-      <c r="F138" s="1">
-        <v>1</v>
-      </c>
       <c r="G138" s="4">
         <v>45624</v>
       </c>
-      <c r="H138" s="4"/>
+      <c r="H138" s="4">
+        <v>45646</v>
+      </c>
       <c r="I138" s="1" t="s">
         <v>149</v>
       </c>
@@ -15386,13 +15434,12 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-      <c r="F152" s="1">
-        <v>1</v>
-      </c>
       <c r="G152" s="4">
         <v>45632</v>
       </c>
-      <c r="H152" s="4"/>
+      <c r="H152" s="4">
+        <v>45646</v>
+      </c>
       <c r="I152" s="1" t="s">
         <v>3865</v>
       </c>
@@ -18287,13 +18334,12 @@
       <c r="E297" s="1">
         <v>1</v>
       </c>
-      <c r="F297" s="1">
-        <v>1</v>
-      </c>
       <c r="G297" s="4">
         <v>45632</v>
       </c>
-      <c r="H297" s="4"/>
+      <c r="H297" s="4">
+        <v>45646</v>
+      </c>
       <c r="I297" s="1" t="s">
         <v>3865</v>
       </c>
@@ -30148,13 +30194,12 @@
       <c r="E890" s="1">
         <v>1</v>
       </c>
-      <c r="F890" s="1">
-        <v>1</v>
-      </c>
       <c r="G890" s="4">
         <v>45632</v>
       </c>
-      <c r="H890" s="4"/>
+      <c r="H890" s="4">
+        <v>45646</v>
+      </c>
       <c r="I890" s="1" t="s">
         <v>3865</v>
       </c>
@@ -34649,13 +34694,12 @@
       <c r="E1115" s="1">
         <v>1</v>
       </c>
-      <c r="F1115" s="1">
-        <v>1</v>
-      </c>
       <c r="G1115" s="4">
         <v>45632</v>
       </c>
-      <c r="H1115" s="4"/>
+      <c r="H1115" s="4">
+        <v>45646</v>
+      </c>
       <c r="I1115" s="1" t="s">
         <v>3865</v>
       </c>
@@ -37190,13 +37234,12 @@
       <c r="E1242" s="1">
         <v>1</v>
       </c>
-      <c r="F1242" s="1">
-        <v>1</v>
-      </c>
       <c r="G1242" s="4">
         <v>45632</v>
       </c>
-      <c r="H1242" s="4"/>
+      <c r="H1242" s="4">
+        <v>45646</v>
+      </c>
       <c r="I1242" s="1" t="s">
         <v>3865</v>
       </c>
@@ -42291,13 +42334,12 @@
       <c r="E1497" s="1">
         <v>1</v>
       </c>
-      <c r="F1497" s="1">
-        <v>1</v>
-      </c>
       <c r="G1497" s="4">
         <v>45632</v>
       </c>
-      <c r="H1497" s="4"/>
+      <c r="H1497" s="4">
+        <v>45646</v>
+      </c>
       <c r="I1497" s="1" t="s">
         <v>3865</v>
       </c>
@@ -47092,13 +47134,12 @@
       <c r="E1737" s="1">
         <v>1</v>
       </c>
-      <c r="F1737" s="1">
-        <v>1</v>
-      </c>
       <c r="G1737" s="4">
         <v>45632</v>
       </c>
-      <c r="H1737" s="4"/>
+      <c r="H1737" s="4">
+        <v>45646</v>
+      </c>
       <c r="I1737" s="1" t="s">
         <v>3865</v>
       </c>
@@ -47456,9 +47497,7 @@
       <c r="G1755" s="4">
         <v>45632</v>
       </c>
-      <c r="H1755" s="4">
-        <v>45632</v>
-      </c>
+      <c r="H1755" s="4"/>
       <c r="I1755" s="1" t="s">
         <v>3865</v>
       </c>
@@ -50813,13 +50852,12 @@
       <c r="E1923" s="1">
         <v>1</v>
       </c>
-      <c r="F1923" s="1">
-        <v>1</v>
-      </c>
       <c r="G1923" s="4">
         <v>45632</v>
       </c>
-      <c r="H1923" s="4"/>
+      <c r="H1923" s="4">
+        <v>45646</v>
+      </c>
       <c r="I1923" s="1" t="s">
         <v>3865</v>
       </c>
@@ -52154,13 +52192,12 @@
       <c r="E1990" s="1">
         <v>1</v>
       </c>
-      <c r="F1990" s="1">
-        <v>1</v>
-      </c>
       <c r="G1990" s="4">
         <v>45632</v>
       </c>
-      <c r="H1990" s="4"/>
+      <c r="H1990" s="4">
+        <v>45646</v>
+      </c>
       <c r="I1990" s="1" t="s">
         <v>3865</v>
       </c>
@@ -54215,13 +54252,12 @@
       <c r="E2093" s="1">
         <v>1</v>
       </c>
-      <c r="F2093" s="1">
-        <v>1</v>
-      </c>
       <c r="G2093" s="4">
         <v>45632</v>
       </c>
-      <c r="H2093" s="4"/>
+      <c r="H2093" s="4">
+        <v>45646</v>
+      </c>
       <c r="I2093" s="1" t="s">
         <v>3865</v>
       </c>
@@ -57356,13 +57392,12 @@
       <c r="E2250" s="1">
         <v>1</v>
       </c>
-      <c r="F2250" s="1">
-        <v>1</v>
-      </c>
       <c r="G2250" s="4">
         <v>45632</v>
       </c>
-      <c r="H2250" s="4"/>
+      <c r="H2250" s="4">
+        <v>45646</v>
+      </c>
       <c r="I2250" s="1" t="s">
         <v>3865</v>
       </c>
@@ -61637,13 +61672,12 @@
       <c r="E2464" s="1">
         <v>1</v>
       </c>
-      <c r="F2464" s="1">
-        <v>1</v>
-      </c>
       <c r="G2464" s="4">
         <v>45632</v>
       </c>
-      <c r="H2464" s="4"/>
+      <c r="H2464" s="4">
+        <v>45646</v>
+      </c>
       <c r="I2464" s="1" t="s">
         <v>3865</v>
       </c>
@@ -71998,13 +72032,12 @@
       <c r="E2982" s="1">
         <v>1</v>
       </c>
-      <c r="F2982" s="1">
-        <v>1</v>
-      </c>
       <c r="G2982" s="4">
         <v>45632</v>
       </c>
-      <c r="H2982" s="4"/>
+      <c r="H2982" s="4">
+        <v>45646</v>
+      </c>
       <c r="I2982" s="1" t="s">
         <v>3865</v>
       </c>
@@ -74599,13 +74632,12 @@
       <c r="E3112" s="1">
         <v>1</v>
       </c>
-      <c r="F3112" s="1">
-        <v>1</v>
-      </c>
       <c r="G3112" s="4">
         <v>45632</v>
       </c>
-      <c r="H3112" s="4"/>
+      <c r="H3112" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3112" s="1" t="s">
         <v>3865</v>
       </c>
@@ -74980,13 +75012,12 @@
       <c r="E3131" s="1">
         <v>1</v>
       </c>
-      <c r="F3131" s="1">
-        <v>1</v>
-      </c>
       <c r="G3131" s="4">
         <v>45632</v>
       </c>
-      <c r="H3131" s="4"/>
+      <c r="H3131" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3131" s="1" t="s">
         <v>3865</v>
       </c>
@@ -78921,13 +78952,12 @@
       <c r="E3328" s="1">
         <v>1</v>
       </c>
-      <c r="F3328" s="1">
-        <v>1</v>
-      </c>
       <c r="G3328" s="4">
         <v>45632</v>
       </c>
-      <c r="H3328" s="4"/>
+      <c r="H3328" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3328" s="1" t="s">
         <v>3865</v>
       </c>
@@ -79002,13 +79032,12 @@
       <c r="E3332" s="1">
         <v>1</v>
       </c>
-      <c r="F3332" s="1">
-        <v>1</v>
-      </c>
       <c r="G3332" s="4">
         <v>45632</v>
       </c>
-      <c r="H3332" s="4"/>
+      <c r="H3332" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3332" s="1" t="s">
         <v>3865</v>
       </c>
@@ -79743,13 +79772,12 @@
       <c r="E3369" s="1">
         <v>1</v>
       </c>
-      <c r="F3369" s="1">
-        <v>1</v>
-      </c>
       <c r="G3369" s="4">
         <v>45632</v>
       </c>
-      <c r="H3369" s="4"/>
+      <c r="H3369" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3369" s="1" t="s">
         <v>3865</v>
       </c>
@@ -80904,13 +80932,12 @@
       <c r="E3427" s="1">
         <v>1</v>
       </c>
-      <c r="F3427" s="1">
-        <v>1</v>
-      </c>
       <c r="G3427" s="4">
         <v>45632</v>
       </c>
-      <c r="H3427" s="4"/>
+      <c r="H3427" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3427" s="1" t="s">
         <v>3865</v>
       </c>
@@ -82225,13 +82252,12 @@
       <c r="E3493" s="1">
         <v>1</v>
       </c>
-      <c r="F3493" s="1">
-        <v>1</v>
-      </c>
       <c r="G3493" s="4">
         <v>45632</v>
       </c>
-      <c r="H3493" s="4"/>
+      <c r="H3493" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3493" s="1" t="s">
         <v>3865</v>
       </c>
@@ -83326,13 +83352,12 @@
       <c r="E3548" s="1">
         <v>1</v>
       </c>
-      <c r="F3548" s="1">
-        <v>1</v>
-      </c>
       <c r="G3548" s="4">
         <v>45632</v>
       </c>
-      <c r="H3548" s="4"/>
+      <c r="H3548" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3548" s="1" t="s">
         <v>3865</v>
       </c>
@@ -85187,13 +85212,12 @@
       <c r="E3641" s="1">
         <v>1</v>
       </c>
-      <c r="F3641" s="1">
-        <v>1</v>
-      </c>
       <c r="G3641" s="4">
         <v>45632</v>
       </c>
-      <c r="H3641" s="4"/>
+      <c r="H3641" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3641" s="1" t="s">
         <v>3865</v>
       </c>
@@ -88188,13 +88212,12 @@
       <c r="E3791" s="1">
         <v>1</v>
       </c>
-      <c r="F3791" s="1">
-        <v>1</v>
-      </c>
       <c r="G3791" s="4">
         <v>45632</v>
       </c>
-      <c r="H3791" s="4"/>
+      <c r="H3791" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3791" s="1" t="s">
         <v>3865</v>
       </c>
@@ -89129,13 +89152,12 @@
       <c r="E3838" s="1">
         <v>1</v>
       </c>
-      <c r="F3838" s="1">
-        <v>1</v>
-      </c>
       <c r="G3838" s="4">
         <v>45632</v>
       </c>
-      <c r="H3838" s="4"/>
+      <c r="H3838" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3838" s="1" t="s">
         <v>3865</v>
       </c>
@@ -89150,13 +89172,12 @@
       <c r="E3839" s="1">
         <v>1</v>
       </c>
-      <c r="F3839" s="1">
-        <v>1</v>
-      </c>
       <c r="G3839" s="4">
         <v>45632</v>
       </c>
-      <c r="H3839" s="4"/>
+      <c r="H3839" s="4">
+        <v>45646</v>
+      </c>
       <c r="I3839" s="1" t="s">
         <v>3865</v>
       </c>
